--- a/Paper_May25_imputed.xlsx
+++ b/Paper_May25_imputed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML Projects\ML_2025\Rubber_May2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759902C-5C4D-4085-AED9-A1FAA2E6BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CC760F-D2C5-40AB-9D8D-2A99BB967085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -175,12 +175,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,105 +490,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AE1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -683,7 +692,7 @@
       <c r="AE2">
         <v>7.2750000000000004</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>42736</v>
       </c>
     </row>
@@ -781,7 +790,7 @@
       <c r="AE3">
         <v>7.069</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>42767</v>
       </c>
     </row>
@@ -879,7 +888,7 @@
       <c r="AE4">
         <v>6.9969999999999999</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="1">
         <v>42795</v>
       </c>
     </row>
@@ -977,7 +986,7 @@
       <c r="AE5">
         <v>7.0579999999999998</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="1">
         <v>42826</v>
       </c>
     </row>
@@ -1075,7 +1084,7 @@
       <c r="AE6">
         <v>6.9880000000000004</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="1">
         <v>42856</v>
       </c>
     </row>
@@ -1173,7 +1182,7 @@
       <c r="AE7">
         <v>6.9370000000000003</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="1">
         <v>42887</v>
       </c>
     </row>
@@ -1271,7 +1280,7 @@
       <c r="AE8">
         <v>6.8780000000000001</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="1">
         <v>42917</v>
       </c>
     </row>
@@ -1369,7 +1378,7 @@
       <c r="AE9">
         <v>6.9450000000000003</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="1">
         <v>42948</v>
       </c>
     </row>
@@ -1467,7 +1476,7 @@
       <c r="AE10">
         <v>7.0250000000000004</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="1">
         <v>42979</v>
       </c>
     </row>
@@ -1565,7 +1574,7 @@
       <c r="AE11">
         <v>7.0529999999999999</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="1">
         <v>43009</v>
       </c>
     </row>
@@ -1663,7 +1672,7 @@
       <c r="AE12">
         <v>7.1479999999999997</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="1">
         <v>43040</v>
       </c>
     </row>
@@ -1761,7 +1770,7 @@
       <c r="AE13">
         <v>7.0979999999999999</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="1">
         <v>43070</v>
       </c>
     </row>
@@ -1859,7 +1868,7 @@
       <c r="AE14">
         <v>6.9359999999999999</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="1">
         <v>43101</v>
       </c>
     </row>
@@ -1957,7 +1966,7 @@
       <c r="AE15">
         <v>7.1790000000000003</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="1">
         <v>43132</v>
       </c>
     </row>
@@ -2055,7 +2064,7 @@
       <c r="AE16">
         <v>7.2539999999999996</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="1">
         <v>43160</v>
       </c>
     </row>
@@ -2153,7 +2162,7 @@
       <c r="AE17">
         <v>7.1260000000000003</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="1">
         <v>43191</v>
       </c>
     </row>
@@ -2251,7 +2260,7 @@
       <c r="AE18">
         <v>7.1390000000000002</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="1">
         <v>43221</v>
       </c>
     </row>
@@ -2349,7 +2358,7 @@
       <c r="AE19">
         <v>6.8620000000000001</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="1">
         <v>43252</v>
       </c>
     </row>
@@ -2447,7 +2456,7 @@
       <c r="AE20">
         <v>6.6580000000000004</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="1">
         <v>43282</v>
       </c>
     </row>
@@ -2545,7 +2554,7 @@
       <c r="AE21">
         <v>6.6</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="1">
         <v>43313</v>
       </c>
     </row>
@@ -2643,7 +2652,7 @@
       <c r="AE22">
         <v>6.4820000000000002</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="1">
         <v>43344</v>
       </c>
     </row>
@@ -2741,7 +2750,7 @@
       <c r="AE23">
         <v>6.4909999999999997</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF23" s="1">
         <v>43374</v>
       </c>
     </row>
@@ -2839,7 +2848,7 @@
       <c r="AE24">
         <v>6.5590000000000002</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="1">
         <v>43405</v>
       </c>
     </row>
@@ -2937,7 +2946,7 @@
       <c r="AE25">
         <v>6.4489999999999998</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="1">
         <v>43435</v>
       </c>
     </row>
@@ -3035,7 +3044,7 @@
       <c r="AE26">
         <v>6.5140000000000002</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="1">
         <v>43466</v>
       </c>
     </row>
@@ -3133,7 +3142,7 @@
       <c r="AE27">
         <v>6.5759999999999996</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF27" s="1">
         <v>43497</v>
       </c>
     </row>
@@ -3231,7 +3240,7 @@
       <c r="AE28">
         <v>6.5880000000000001</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF28" s="1">
         <v>43525</v>
       </c>
     </row>
@@ -3329,7 +3338,7 @@
       <c r="AE29">
         <v>6.6710000000000003</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="1">
         <v>43556</v>
       </c>
     </row>
@@ -3427,7 +3436,7 @@
       <c r="AE30">
         <v>6.7629999999999999</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30" s="1">
         <v>43586</v>
       </c>
     </row>
@@ -3525,7 +3534,7 @@
       <c r="AE31">
         <v>6.8449999999999998</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AF31" s="1">
         <v>43617</v>
       </c>
     </row>
@@ -3623,7 +3632,7 @@
       <c r="AE32">
         <v>6.7030000000000003</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AF32" s="1">
         <v>43647</v>
       </c>
     </row>
@@ -3721,7 +3730,7 @@
       <c r="AE33">
         <v>6.6879999999999997</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF33" s="1">
         <v>43678</v>
       </c>
     </row>
@@ -3819,7 +3828,7 @@
       <c r="AE34">
         <v>6.7409999999999997</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AF34" s="1">
         <v>43709</v>
       </c>
     </row>
@@ -3917,7 +3926,7 @@
       <c r="AE35">
         <v>6.7640000000000002</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AF35" s="1">
         <v>43739</v>
       </c>
     </row>
@@ -4015,7 +4024,7 @@
       <c r="AE36">
         <v>6.5259999999999998</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AF36" s="1">
         <v>43770</v>
       </c>
     </row>
@@ -4113,7 +4122,7 @@
       <c r="AE37">
         <v>6.6520000000000001</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AF37" s="1">
         <v>43800</v>
       </c>
     </row>
@@ -4211,7 +4220,7 @@
       <c r="AE38">
         <v>6.7590000000000003</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AF38" s="1">
         <v>43831</v>
       </c>
     </row>
@@ -4309,7 +4318,7 @@
       <c r="AE39">
         <v>6.7690000000000001</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF39" s="1">
         <v>43862</v>
       </c>
     </row>
@@ -4407,7 +4416,7 @@
       <c r="AE40">
         <v>5.6420000000000003</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AF40" s="1">
         <v>43891</v>
       </c>
     </row>
@@ -4505,7 +4514,7 @@
       <c r="AE41">
         <v>3.7709999999999999</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="1">
         <v>43922</v>
       </c>
     </row>
@@ -4603,7 +4612,7 @@
       <c r="AE42">
         <v>6.68</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="1">
         <v>43952</v>
       </c>
     </row>
@@ -4701,7 +4710,7 @@
       <c r="AE43">
         <v>8.5519999999999996</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AF43" s="1">
         <v>43983</v>
       </c>
     </row>
@@ -4799,7 +4808,7 @@
       <c r="AE44">
         <v>8.1080000000000005</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AF44" s="1">
         <v>44013</v>
       </c>
     </row>
@@ -4897,7 +4906,7 @@
       <c r="AE45">
         <v>7.5259999999999998</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AF45" s="1">
         <v>44044</v>
       </c>
     </row>
@@ -4995,7 +5004,7 @@
       <c r="AE46">
         <v>8.1270000000000007</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="1">
         <v>44075</v>
       </c>
     </row>
@@ -5093,7 +5102,7 @@
       <c r="AE47">
         <v>8.0259999999999998</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF47" s="1">
         <v>44105</v>
       </c>
     </row>
@@ -5191,7 +5200,7 @@
       <c r="AE48">
         <v>7.8869999999999996</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AF48" s="1">
         <v>44136</v>
       </c>
     </row>
@@ -5289,7 +5298,7 @@
       <c r="AE49">
         <v>7.7370000000000001</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AF49" s="1">
         <v>44166</v>
       </c>
     </row>
@@ -5387,7 +5396,7 @@
       <c r="AE50">
         <v>8.4600000000000009</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AF50" s="1">
         <v>44197</v>
       </c>
     </row>
@@ -5485,7 +5494,7 @@
       <c r="AE51">
         <v>7.6390000000000002</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF51" s="1">
         <v>44228</v>
       </c>
     </row>
@@ -5583,7 +5592,7 @@
       <c r="AE52">
         <v>9.2270000000000003</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AF52" s="1">
         <v>44256</v>
       </c>
     </row>
@@ -5681,7 +5690,7 @@
       <c r="AE53">
         <v>8.9600000000000009</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AF53" s="1">
         <v>44287</v>
       </c>
     </row>
@@ -5779,7 +5788,7 @@
       <c r="AE54">
         <v>8.6929999999999996</v>
       </c>
-      <c r="AF54" s="2">
+      <c r="AF54" s="1">
         <v>44317</v>
       </c>
     </row>
@@ -5877,7 +5886,7 @@
       <c r="AE55">
         <v>8.5719999999999992</v>
       </c>
-      <c r="AF55" s="2">
+      <c r="AF55" s="1">
         <v>44348</v>
       </c>
     </row>
@@ -5975,7 +5984,7 @@
       <c r="AE56">
         <v>8.3759999999999994</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="AF56" s="1">
         <v>44378</v>
       </c>
     </row>
@@ -6073,7 +6082,7 @@
       <c r="AE57">
         <v>8.4030000000000005</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AF57" s="1">
         <v>44409</v>
       </c>
     </row>
@@ -6171,7 +6180,7 @@
       <c r="AE58">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AF58" s="1">
         <v>44440</v>
       </c>
     </row>
@@ -6269,7 +6278,7 @@
       <c r="AE59">
         <v>8.3810000000000002</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AF59" s="1">
         <v>44470</v>
       </c>
     </row>
@@ -6367,7 +6376,7 @@
       <c r="AE60">
         <v>8.7520000000000007</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="AF60" s="1">
         <v>44501</v>
       </c>
     </row>
@@ -6465,7 +6474,7 @@
       <c r="AE61">
         <v>8.4540000000000006</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AF61" s="1">
         <v>44531</v>
       </c>
     </row>
@@ -6563,7 +6572,7 @@
       <c r="AE62">
         <v>8.2360000000000007</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AF62" s="1">
         <v>44562</v>
       </c>
     </row>
@@ -6661,7 +6670,7 @@
       <c r="AE63">
         <v>8.5449999999999999</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF63" s="1">
         <v>44593</v>
       </c>
     </row>
@@ -6759,7 +6768,7 @@
       <c r="AE64">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AF64" s="1">
         <v>44621</v>
       </c>
     </row>
@@ -6857,7 +6866,7 @@
       <c r="AE65">
         <v>8.5500000000000007</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="AF65" s="1">
         <v>44652</v>
       </c>
     </row>
@@ -6955,7 +6964,7 @@
       <c r="AE66">
         <v>8.5229999999999997</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF66" s="1">
         <v>44682</v>
       </c>
     </row>
@@ -7053,7 +7062,7 @@
       <c r="AE67">
         <v>8.5419999999999998</v>
       </c>
-      <c r="AF67" s="2">
+      <c r="AF67" s="1">
         <v>44713</v>
       </c>
     </row>
@@ -7151,7 +7160,7 @@
       <c r="AE68">
         <v>8.5340000000000007</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AF68" s="1">
         <v>44743</v>
       </c>
     </row>
@@ -7249,7 +7258,7 @@
       <c r="AE69">
         <v>8.6449999999999996</v>
       </c>
-      <c r="AF69" s="2">
+      <c r="AF69" s="1">
         <v>44774</v>
       </c>
     </row>
@@ -7347,7 +7356,7 @@
       <c r="AE70">
         <v>8.6229999999999993</v>
       </c>
-      <c r="AF70" s="2">
+      <c r="AF70" s="1">
         <v>44805</v>
       </c>
     </row>
@@ -7445,7 +7454,7 @@
       <c r="AE71">
         <v>8.6820000000000004</v>
       </c>
-      <c r="AF71" s="2">
+      <c r="AF71" s="1">
         <v>44835</v>
       </c>
     </row>
@@ -7543,7 +7552,7 @@
       <c r="AE72">
         <v>8.5739999999999998</v>
       </c>
-      <c r="AF72" s="2">
+      <c r="AF72" s="1">
         <v>44866</v>
       </c>
     </row>
@@ -7641,7 +7650,7 @@
       <c r="AE73">
         <v>8.6989999999999998</v>
       </c>
-      <c r="AF73" s="2">
+      <c r="AF73" s="1">
         <v>44896</v>
       </c>
     </row>
@@ -7739,7 +7748,7 @@
       <c r="AE74">
         <v>8.2829999999999995</v>
       </c>
-      <c r="AF74" s="2">
+      <c r="AF74" s="1">
         <v>44927</v>
       </c>
     </row>
@@ -7837,7 +7846,7 @@
       <c r="AE75">
         <v>8.2089999999999996</v>
       </c>
-      <c r="AF75" s="2">
+      <c r="AF75" s="1">
         <v>44958</v>
       </c>
     </row>
@@ -7935,7 +7944,7 @@
       <c r="AE76">
         <v>8.1750000000000007</v>
       </c>
-      <c r="AF76" s="2">
+      <c r="AF76" s="1">
         <v>44986</v>
       </c>
     </row>
@@ -8033,7 +8042,7 @@
       <c r="AE77">
         <v>8.3030000000000008</v>
       </c>
-      <c r="AF77" s="2">
+      <c r="AF77" s="1">
         <v>45017</v>
       </c>
     </row>
@@ -8131,7 +8140,7 @@
       <c r="AE78">
         <v>8.218</v>
       </c>
-      <c r="AF78" s="2">
+      <c r="AF78" s="1">
         <v>45047</v>
       </c>
     </row>
@@ -8229,7 +8238,7 @@
       <c r="AE79">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF79" s="2">
+      <c r="AF79" s="1">
         <v>45078</v>
       </c>
     </row>
@@ -8327,7 +8336,7 @@
       <c r="AE80">
         <v>8.4290000000000003</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AF80" s="1">
         <v>45108</v>
       </c>
     </row>
@@ -8425,7 +8434,7 @@
       <c r="AE81">
         <v>8.1820000000000004</v>
       </c>
-      <c r="AF81" s="2">
+      <c r="AF81" s="1">
         <v>45139</v>
       </c>
     </row>
@@ -8523,7 +8532,7 @@
       <c r="AE82">
         <v>8.1359999999999992</v>
       </c>
-      <c r="AF82" s="2">
+      <c r="AF82" s="1">
         <v>45170</v>
       </c>
     </row>
@@ -8621,7 +8630,7 @@
       <c r="AE83">
         <v>8.1240000000000006</v>
       </c>
-      <c r="AF83" s="2">
+      <c r="AF83" s="1">
         <v>45200</v>
       </c>
     </row>
@@ -8719,7 +8728,7 @@
       <c r="AE84">
         <v>8.173</v>
       </c>
-      <c r="AF84" s="2">
+      <c r="AF84" s="1">
         <v>45231</v>
       </c>
     </row>
@@ -8817,7 +8826,7 @@
       <c r="AE85">
         <v>7.9790000000000001</v>
       </c>
-      <c r="AF85" s="2">
+      <c r="AF85" s="1">
         <v>45261</v>
       </c>
     </row>
@@ -8915,7 +8924,7 @@
       <c r="AE86">
         <v>8.0429999999999993</v>
       </c>
-      <c r="AF86" s="2">
+      <c r="AF86" s="1">
         <v>45292</v>
       </c>
     </row>
@@ -9013,7 +9022,7 @@
       <c r="AE87">
         <v>8.1509999999999998</v>
       </c>
-      <c r="AF87" s="2">
+      <c r="AF87" s="1">
         <v>45323</v>
       </c>
     </row>
@@ -9111,7 +9120,7 @@
       <c r="AE88">
         <v>7.8479999999999999</v>
       </c>
-      <c r="AF88" s="2">
+      <c r="AF88" s="1">
         <v>45352</v>
       </c>
     </row>
@@ -9209,7 +9218,7 @@
       <c r="AE89">
         <v>7.7789999999999999</v>
       </c>
-      <c r="AF89" s="2">
+      <c r="AF89" s="1">
         <v>45383</v>
       </c>
     </row>
@@ -9307,7 +9316,7 @@
       <c r="AE90">
         <v>7.9160000000000004</v>
       </c>
-      <c r="AF90" s="2">
+      <c r="AF90" s="1">
         <v>45413</v>
       </c>
     </row>
@@ -9405,7 +9414,7 @@
       <c r="AE91">
         <v>7.9169999999999998</v>
       </c>
-      <c r="AF91" s="2">
+      <c r="AF91" s="1">
         <v>45444</v>
       </c>
     </row>
@@ -9503,7 +9512,7 @@
       <c r="AE92">
         <v>7.8280000000000003</v>
       </c>
-      <c r="AF92" s="2">
+      <c r="AF92" s="1">
         <v>45474</v>
       </c>
     </row>
@@ -9601,7 +9610,7 @@
       <c r="AE93">
         <v>7.88</v>
       </c>
-      <c r="AF93" s="2">
+      <c r="AF93" s="1">
         <v>45505</v>
       </c>
     </row>
@@ -9699,7 +9708,7 @@
       <c r="AE94">
         <v>7.9560000000000004</v>
       </c>
-      <c r="AF94" s="2">
+      <c r="AF94" s="1">
         <v>45536</v>
       </c>
     </row>
@@ -9797,7 +9806,7 @@
       <c r="AE95">
         <v>7.9240000000000004</v>
       </c>
-      <c r="AF95" s="2">
+      <c r="AF95" s="1">
         <v>45566</v>
       </c>
     </row>
@@ -9895,7 +9904,7 @@
       <c r="AE96">
         <v>7.907</v>
       </c>
-      <c r="AF96" s="2">
+      <c r="AF96" s="1">
         <v>45597</v>
       </c>
     </row>
@@ -9993,7 +10002,7 @@
       <c r="AE97">
         <v>8.1289999999999996</v>
       </c>
-      <c r="AF97" s="2">
+      <c r="AF97" s="1">
         <v>45627</v>
       </c>
     </row>
@@ -10091,7 +10100,7 @@
       <c r="AE98">
         <v>7.8810000000000002</v>
       </c>
-      <c r="AF98" s="2">
+      <c r="AF98" s="1">
         <v>45658</v>
       </c>
     </row>
@@ -10189,7 +10198,7 @@
       <c r="AE99">
         <v>7.8680000000000003</v>
       </c>
-      <c r="AF99" s="2">
+      <c r="AF99" s="1">
         <v>45689</v>
       </c>
     </row>
@@ -10287,7 +10296,7 @@
       <c r="AE100">
         <v>8.3829999999999991</v>
       </c>
-      <c r="AF100" s="2">
+      <c r="AF100" s="1">
         <v>45717</v>
       </c>
     </row>
@@ -10385,7 +10394,7 @@
       <c r="AE101">
         <v>7.5855636867723852</v>
       </c>
-      <c r="AF101" s="2">
+      <c r="AF101" s="1">
         <v>45748</v>
       </c>
     </row>
